--- a/web/static/dados/salas_preferenciais.xlsx
+++ b/web/static/dados/salas_preferenciais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">Curso/Matéria</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ADMINISTRAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">207-B, 208-B, 209-B, 210-B</t>
+    <t xml:space="preserve">210-B, 209-B, 208-B, 207-B, 206-B</t>
   </si>
   <si>
     <t xml:space="preserve">Separar as salas por “,”</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">AGRONOMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">301-A, 302-A, 303-A, 304-A</t>
+    <t xml:space="preserve">301-A, 302-A, 303-A, 304-A, 305-A</t>
   </si>
   <si>
     <t xml:space="preserve">Preferências de disciplina sobrescrevem preferências de curso</t>
@@ -52,19 +52,19 @@
     <t xml:space="preserve">CIÊNCIA DA COMPUTAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">305-B , 308-B , 309-B , 310-B</t>
+    <t xml:space="preserve">308-B , 309-B , 310-B, 305-B, 304-B, 303-B, 302-B, 301-B</t>
   </si>
   <si>
     <t xml:space="preserve">CIÊNCIAS SOCIAIS</t>
   </si>
   <si>
-    <t xml:space="preserve">303-A, 304-A, 305-A</t>
+    <t xml:space="preserve">305-A, 306-A, 304-A, 303-A</t>
   </si>
   <si>
     <t xml:space="preserve">ENFERMAGEM</t>
   </si>
   <si>
-    <t xml:space="preserve">306-A, 307-A, 308-A, 309-A</t>
+    <t xml:space="preserve">309-A, 308-A, 307-A, 305-A</t>
   </si>
   <si>
     <t xml:space="preserve">ENGENHARIA AMBIENTAL E SANITÁRIA</t>
@@ -82,37 +82,31 @@
     <t xml:space="preserve">GEOGRAFIA</t>
   </si>
   <si>
-    <t xml:space="preserve">301-B, 302-B, 303-B, 304-B</t>
+    <t xml:space="preserve">203-C, 204-C, 205-C, 212-C, 215-C, 216-C, 218-C</t>
   </si>
   <si>
     <t xml:space="preserve">HISTÓRIA</t>
   </si>
   <si>
-    <t xml:space="preserve">306-A, 307-A, 308-A, 216-C</t>
+    <t xml:space="preserve">309-A, 308-A, 307-A, 306-A</t>
   </si>
   <si>
     <t xml:space="preserve">LETRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">206-A, 207-A, 208-A, 208-A, 209-A, 210-A, 309-A</t>
+    <t xml:space="preserve">206-A, 207-A, 208-A, 208-A, 209-A, 210-A</t>
   </si>
   <si>
     <t xml:space="preserve">MATEMÁTICA</t>
   </si>
   <si>
-    <t xml:space="preserve">202-A, 203-A, 204-A, 205-A</t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDICINA</t>
   </si>
   <si>
-    <t xml:space="preserve">301-A, 302-A, 301-B, 303-B, 304-B, 103-C</t>
-  </si>
-  <si>
     <t xml:space="preserve">PEDAGOGIA</t>
   </si>
   <si>
-    <t xml:space="preserve">202-B, 203-B, 204-B, 205-B, 206-B</t>
+    <t xml:space="preserve">201-B, 202-B, 203-B, 204-B, 205-B, 206-B</t>
   </si>
 </sst>
 </file>
@@ -222,32 +216,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,23 +348,23 @@
         <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
